--- a/jpcore-r4/feature/swg3-location/CodeSystem-jp-medication-example-methodcomment-cs.xlsx
+++ b/jpcore-r4/feature/swg3-location/CodeSystem-jp-medication-example-methodcomment-cs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Medication Example MethodComment</t>
+    <t>JP Core Medication Example MethodComment CodeSystem</t>
   </si>
   <si>
     <t>Status</t>
